--- a/biology/Zoologie/L'Appel_de_la_forêt/L'Appel_de_la_forêt.xlsx
+++ b/biology/Zoologie/L'Appel_de_la_forêt/L'Appel_de_la_forêt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt</t>
+          <t>L'Appel_de_la_forêt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Appel de la forêt (titre original : The Call of the Wild), également intitulé L'Appel du Grand Nord, L'Appel sauvage ou L'Appel du monde sauvage dans certaines traductions, est un roman de l'écrivain américain Jack London, publié aux États-Unis en 1903. 
-En France, le roman paraît pour la première fois sous forme de volume en 1906[1].
+En France, le roman paraît pour la première fois sous forme de volume en 1906.
 Le roman relate comment un chien domestique, vendu à la suite d'un concours de circonstances comme chien de traîneau à l'époque de la ruée vers l'or, revient à ses instincts naturels une fois confronté aux pièges et à la rudesse du territoire du Yukon.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt</t>
+          <t>L'Appel_de_la_forêt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Buck est un chien de Californie qui appartient au juge Miller. Il est un jour enlevé à son maître par l'aide-jardinier du juge, Manoël, qui, parce qu’il a des dettes de jeux, le vend à un trafiquant de chiens de traîneau. Il fait un premier apprentissage de la brutalité à cette occasion car il est presque mis à mort par « l'homme au gourdin » qui lui apprend la docilité et l'obéissance à coups de gourdin. 
 Il est ensuite racheté par Perrault, un coursier express du gouvernement canadien qui l'emmène dans le grand nord pour délivrer le courrier du gouvernement.  
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt</t>
+          <t>L'Appel_de_la_forêt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Historique du roman</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jack London s'embarque en 1897 pour participer à la ruée vers l'or du Klondike. Atteint du scorbut, il est rapatrié et commence alors à écrire en s'inspirant de son expérience dans le Grand Nord canadien. Il obtient une reconnaissance avec Le Fils du loup. Mais le véritable succès arrive avec L'Appel de la forêt en 1903.
 Jack London tenta de répéter son succès de librairie en 1906 avec Croc-Blanc, roman de facture et de thème similaires, bien que cette fois il s'agisse à l'inverse d'un loup domestiqué par un homme de San Francisco.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt</t>
+          <t>L'Appel_de_la_forêt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,61 +603,173 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Éditions en anglais
-The Call of the Wild, dans le Saturday Evening Post, cinq épisodes du 20 juin au 18 juillet 1903.
-The Call of the Wild, un volume chez Macmillan Publishers, juillet 1903.
-Traductions en français
-L'Appel de la forêt, traduit par la comtesse de Galard, en feuilleton dans Le Temps du 3 au 16 décembre 1905 lire en ligne sur Gallica, en volume en 1906 chez Félix Juven, contenu dans L'Appel de la forêt et autres contes, en feuilleton dans le Journal des voyages, n° 500 au 510, du 1er juillet au 9 septembre 1906, illustrations de Tudor banus
+          <t>Éditions en anglais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Call of the Wild, dans le Saturday Evening Post, cinq épisodes du 20 juin au 18 juillet 1903.
+The Call of the Wild, un volume chez Macmillan Publishers, juillet 1903.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Appel_de_la_forêt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Appel_de_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Appel de la forêt, traduit par la comtesse de Galard, en feuilleton dans Le Temps du 3 au 16 décembre 1905 lire en ligne sur Gallica, en volume en 1906 chez Félix Juven, contenu dans L'Appel de la forêt et autres contes, en feuilleton dans le Journal des voyages, n° 500 au 510, du 1er juillet au 9 septembre 1906, illustrations de Tudor banus
 L'Appel du Grand Nord, traduit par Paule Perez, La Renaissance, 1968
 L'Appel sauvage, traduit par Jean Muray, Hachette, coll. « Bibliothèque verte », 1974
 L'Appel de la forêt, traduit par Jean-Pierre Martinet, préface de Francis Lacassin, Signe de Piste/La Coupole, 1991  (ISBN 2-87654-061-4)
 L'Appel de la forêt, traduit par Pierre Coustillas,  Librairie Générale Française, coll. « Livre de poche – Classiques de poche », no 6247, 2000  (ISBN 2-253-03986-1)
 L'Appel de la forêt, traduit par Noémie Dubresson, Morsang-sur-Orge, Lire c’est Partir, 2000,  (ISBN 2-914471-11-4)
 L'Appel sauvage, traduit par Frédéric Klein, préface par Michel Le Bris, Phébus, coll. « Libretto », no 137, 2003  (ISBN 2-85940-904-1)
-L'Appel du monde sauvage, traduit par Marc Amfreville et Antoine Cazé[2], in Jack London, Romans, récits et nouvelles, tome I, édition publiée sous la direction de Philippe Jaworski, Paris, Gallimard, coll. « Bibliothèque de la Pléiade » no 615, 2016  (ISBN 978-2-07-014647-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27Appel_de_la_for%C3%AAt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+L'Appel du monde sauvage, traduit par Marc Amfreville et Antoine Cazé, in Jack London, Romans, récits et nouvelles, tome I, édition publiée sous la direction de Philippe Jaworski, Paris, Gallimard, coll. « Bibliothèque de la Pléiade » no 615, 2016  (ISBN 978-2-07-014647-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Appel_de_la_forêt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%27Appel_de_la_for%C3%AAt</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1908 : L'Appel de la forêt (The Call of the Wild), film américain réalisé par D. W. Griffith
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1908 : L'Appel de la forêt (The Call of the Wild), film américain réalisé par D. W. Griffith
 1935 : L'Appel de la forêt (The Call of the Wild), film américain réalisé par William A. Wellman
 1972 : L'Appel de la forêt (Call of the Wild), film franco-germano-britannique réalisé par Ken Annakin
 1981 : L'Appel de la forêt (荒野の叫び声 吠えろバック), film d'animation japonais réalisé par Kōzō Morishita
-2020 : L'Appel de la forêt (The Call of the Wild), film américain réalisé par Chris Sanders
-À la télévision
-1976 : L'Appel de la forêt (Call of the Wild), téléfilm américain réalisé par Jerry Jameson
+2020 : L'Appel de la forêt (The Call of the Wild), film américain réalisé par Chris Sanders</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Appel_de_la_forêt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Appel_de_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1976 : L'Appel de la forêt (Call of the Wild), téléfilm américain réalisé par Jerry Jameson
 1981 : L'Appel de la forêt, dessin animé japonais réalisé par Kōzō Morishita
 1993 : L'Appel de la forêt (Call of the Wild), téléfilm italo-américain réalisé par Michael Toshiyuki Uno
 1997 : The Call of the Wild: Dog of the Yukon, téléfilm canadien réalisé par Peter Svatek
-2000 : Call of the Wild, série télévisée
-En bande dessinée
-Peter Costanza, Stan Campbell, R. Evans, N. Nodel, Anna Sewell, etc., Classiques Illustrés, no 22, mars 1958
+2000 : Call of the Wild, série télévisée</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Appel_de_la_forêt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Appel_de_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Peter Costanza, Stan Campbell, R. Evans, N. Nodel, Anna Sewell, etc., Classiques Illustrés, no 22, mars 1958
 Spirou Album+, no 4, décembre 1982, p. 54-81
 Raconté par Leigh Sauerwein, illustré par André Juillard, Je Bouquine, no 2, avril 1984, p. 90-105
 Adapté par J.-L. Bocquet, illustré par Marc-Olivier Nadel, Je Bouquine, no 285, novembre 2007, p. 84-93
